--- a/dataanalysis/alert/0714.xlsx
+++ b/dataanalysis/alert/0714.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="189">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>最高价</t>
+  </si>
+  <si>
+    <t>AI预测</t>
+  </si>
+  <si>
+    <t>AI幅度</t>
   </si>
   <si>
     <t>北陆药业</t>
@@ -1276,7 +1282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,6 +1320,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1326,46 +1338,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1894,7 +1875,7 @@
   <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W70"/>
+      <selection activeCell="U1" sqref="U1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1902,7 +1883,7 @@
     <col min="14" max="15" width="11.5045045045045"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.85" spans="1:20">
+    <row r="1" ht="24.85" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1962,6 +1943,12 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1975,7 +1962,7 @@
         <v>300016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>-0.11</v>
@@ -1984,7 +1971,7 @@
         <v>9.23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="6">
         <v>-5.42</v>
@@ -1996,7 +1983,7 @@
         <v>-2.17</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="4">
@@ -2012,18 +1999,18 @@
         <v>-0.9</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="14">
+        <v>25</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="16">
         <v>1</v>
       </c>
       <c r="V2" s="4">
@@ -2044,7 +2031,7 @@
         <v>300019</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4">
         <v>2.05</v>
@@ -2053,7 +2040,7 @@
         <v>22.93</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="6">
         <v>-4.49</v>
@@ -2065,7 +2052,7 @@
         <v>1.61</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="4">
@@ -2081,16 +2068,16 @@
         <v>0.1</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U3" s="7">
         <v>0</v>
@@ -2113,7 +2100,7 @@
         <v>300043</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4">
         <v>-3.69</v>
@@ -2122,7 +2109,7 @@
         <v>4.7</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6">
         <v>3.62</v>
@@ -2134,7 +2121,7 @@
         <v>7.45</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="4">
@@ -2150,16 +2137,16 @@
         <v>-1.24</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="U4" s="7">
         <v>0</v>
@@ -2182,7 +2169,7 @@
         <v>300066</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>15.27</v>
@@ -2191,7 +2178,7 @@
         <v>6.34</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="6">
         <v>1.1</v>
@@ -2203,7 +2190,7 @@
         <v>10.25</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="4">
@@ -2219,18 +2206,18 @@
         <v>-5.7</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="14">
+        <v>25</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="16">
         <v>1</v>
       </c>
       <c r="V5" s="4">
@@ -2251,7 +2238,7 @@
         <v>300127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4">
         <v>-3.95</v>
@@ -2260,7 +2247,7 @@
         <v>29.67</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="6">
         <v>-1.58</v>
@@ -2272,7 +2259,7 @@
         <v>4.31</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="4">
@@ -2288,16 +2275,16 @@
         <v>-0.63</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U6" s="7">
         <v>0</v>
@@ -2320,7 +2307,7 @@
         <v>300130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
         <v>-2.63</v>
@@ -2329,7 +2316,7 @@
         <v>32.95</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="6">
         <v>-1.55</v>
@@ -2341,7 +2328,7 @@
         <v>1.64</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="4">
@@ -2357,16 +2344,16 @@
         <v>-1.21</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U7" s="7">
         <v>0</v>
@@ -2389,7 +2376,7 @@
         <v>300160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4">
         <v>0.16</v>
@@ -2398,7 +2385,7 @@
         <v>6.2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6">
         <v>-3.23</v>
@@ -2410,7 +2397,7 @@
         <v>-0.16</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="4">
@@ -2426,16 +2413,16 @@
         <v>-0.11</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U8" s="7">
         <v>0</v>
@@ -2458,7 +2445,7 @@
         <v>300180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -2467,7 +2454,7 @@
         <v>9.81</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="6">
         <v>-2.55</v>
@@ -2479,7 +2466,7 @@
         <v>0.31</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="4">
@@ -2495,16 +2482,16 @@
         <v>-0.3</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U9" s="7">
         <v>0</v>
@@ -2527,7 +2514,7 @@
         <v>300195</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4">
         <v>20.03</v>
@@ -2536,7 +2523,7 @@
         <v>9.05</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="6">
         <v>-1.88</v>
@@ -2548,7 +2535,7 @@
         <v>8.62</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="4">
@@ -2563,17 +2550,17 @@
       <c r="P10" s="12">
         <v>4.81</v>
       </c>
-      <c r="Q10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>29</v>
+      <c r="Q10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="U10" s="7">
         <v>0</v>
@@ -2596,7 +2583,7 @@
         <v>300196</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4">
         <v>-0.76</v>
@@ -2605,7 +2592,7 @@
         <v>14.28</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" s="6">
         <v>-1.47</v>
@@ -2617,7 +2604,7 @@
         <v>0.98</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="4">
@@ -2633,16 +2620,16 @@
         <v>-0.25</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U11" s="7">
         <v>0</v>
@@ -2665,7 +2652,7 @@
         <v>300199</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" s="4">
         <v>2.05</v>
@@ -2674,7 +2661,7 @@
         <v>18.89</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12" s="6">
         <v>-3.34</v>
@@ -2686,7 +2673,7 @@
         <v>-0.9</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="4">
@@ -2702,16 +2689,16 @@
         <v>-0.66</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U12" s="7">
         <v>0</v>
@@ -2734,7 +2721,7 @@
         <v>300246</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4">
         <v>0.53</v>
@@ -2743,7 +2730,7 @@
         <v>9.41</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="6">
         <v>-3.61</v>
@@ -2755,7 +2742,7 @@
         <v>-0.53</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="4">
@@ -2771,16 +2758,16 @@
         <v>-0.17</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U13" s="7">
         <v>0</v>
@@ -2803,7 +2790,7 @@
         <v>300254</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4">
         <v>1.07</v>
@@ -2812,7 +2799,7 @@
         <v>11.32</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" s="6">
         <v>-2.21</v>
@@ -2824,7 +2811,7 @@
         <v>0.18</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="4">
@@ -2840,18 +2827,18 @@
         <v>-0.23</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="14">
+        <v>25</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="16">
         <v>1</v>
       </c>
       <c r="V14" s="4">
@@ -2872,7 +2859,7 @@
         <v>300335</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4">
         <v>0.16</v>
@@ -2881,7 +2868,7 @@
         <v>6.26</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="6">
         <v>-4.79</v>
@@ -2893,7 +2880,7 @@
         <v>-1.12</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="4">
@@ -2909,16 +2896,16 @@
         <v>-0.52</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U15" s="7">
         <v>0</v>
@@ -2941,7 +2928,7 @@
         <v>300348</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4">
         <v>-8.67</v>
@@ -2950,7 +2937,7 @@
         <v>19.06</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H16" s="6">
         <v>1.36</v>
@@ -2962,7 +2949,7 @@
         <v>3.25</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="4">
@@ -2978,16 +2965,16 @@
         <v>-2.99</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U16" s="7">
         <v>0</v>
@@ -3010,7 +2997,7 @@
         <v>300371</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4">
         <v>3.84</v>
@@ -3019,7 +3006,7 @@
         <v>13.78</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17" s="6">
         <v>-5.95</v>
@@ -3031,7 +3018,7 @@
         <v>-1.67</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="4">
@@ -3047,16 +3034,16 @@
         <v>-0.01</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U17" s="7">
         <v>0</v>
@@ -3079,7 +3066,7 @@
         <v>300410</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4">
         <v>3.05</v>
@@ -3088,7 +3075,7 @@
         <v>8.1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" s="6">
         <v>3.33</v>
@@ -3100,7 +3087,7 @@
         <v>4.32</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="4">
@@ -3116,16 +3103,16 @@
         <v>-0.59</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U18" s="7">
         <v>0</v>
@@ -3148,7 +3135,7 @@
         <v>300414</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="4">
         <v>8.77</v>
@@ -3157,7 +3144,7 @@
         <v>14.01</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H19" s="6">
         <v>-4.07</v>
@@ -3169,7 +3156,7 @@
         <v>1.07</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="4">
@@ -3185,24 +3172,24 @@
         <v>0.5</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U19" s="14">
+        <v>25</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19" s="16">
         <v>1</v>
       </c>
       <c r="V19" s="4">
         <v>15.53456211</v>
       </c>
-      <c r="W19" s="16">
+      <c r="W19" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3217,7 +3204,7 @@
         <v>300436</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4">
         <v>0.82</v>
@@ -3226,7 +3213,7 @@
         <v>62.51</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H20" s="6">
         <v>2.77</v>
@@ -3238,7 +3225,7 @@
         <v>3.62</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="4">
@@ -3254,16 +3241,16 @@
         <v>0.03</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U20" s="7">
         <v>0</v>
@@ -3286,7 +3273,7 @@
         <v>300471</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" s="4">
         <v>-5.85</v>
@@ -3295,7 +3282,7 @@
         <v>12.08</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H21" s="6">
         <v>-3.73</v>
@@ -3307,7 +3294,7 @@
         <v>-0.75</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="4">
@@ -3323,16 +3310,16 @@
         <v>-0.45</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U21" s="7">
         <v>0</v>
@@ -3355,7 +3342,7 @@
         <v>300485</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E22" s="4">
         <v>1.98</v>
@@ -3364,7 +3351,7 @@
         <v>13.88</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H22" s="6">
         <v>-5.4</v>
@@ -3376,7 +3363,7 @@
         <v>-0.29</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="4">
@@ -3392,16 +3379,16 @@
         <v>0.69</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U22" s="7">
         <v>0</v>
@@ -3424,7 +3411,7 @@
         <v>300505</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4">
         <v>-0.35</v>
@@ -3433,7 +3420,7 @@
         <v>19.91</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H23" s="6">
         <v>-2.31</v>
@@ -3445,7 +3432,7 @@
         <v>0.7</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="4">
@@ -3461,18 +3448,18 @@
         <v>-0.14</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U23" s="14">
+        <v>25</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="16">
         <v>1</v>
       </c>
       <c r="V23" s="4">
@@ -3493,7 +3480,7 @@
         <v>300527</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4">
         <v>0.53</v>
@@ -3502,7 +3489,7 @@
         <v>11.41</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24" s="6">
         <v>-4.56</v>
@@ -3514,7 +3501,7 @@
         <v>0.26</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="4">
@@ -3530,16 +3517,16 @@
         <v>-0.05</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U24" s="7">
         <v>0</v>
@@ -3562,7 +3549,7 @@
         <v>300531</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" s="4">
         <v>-2.8</v>
@@ -3571,7 +3558,7 @@
         <v>20.84</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H25" s="6">
         <v>-1.73</v>
@@ -3583,7 +3570,7 @@
         <v>0.67</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="4">
@@ -3599,18 +3586,18 @@
         <v>-0.8</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="14">
+        <v>25</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="16">
         <v>1</v>
       </c>
       <c r="V25" s="4">
@@ -3631,7 +3618,7 @@
         <v>300533</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4">
         <v>-1.17</v>
@@ -3640,7 +3627,7 @@
         <v>37.11</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H26" s="6">
         <v>7.41</v>
@@ -3652,7 +3639,7 @@
         <v>7.44</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="4">
@@ -3668,16 +3655,16 @@
         <v>-0.6</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="U26" s="7">
         <v>0</v>
@@ -3700,7 +3687,7 @@
         <v>300537</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E27" s="4">
         <v>-7.15</v>
@@ -3709,7 +3696,7 @@
         <v>25.98</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H27" s="6">
         <v>-0.89</v>
@@ -3721,7 +3708,7 @@
         <v>0.38</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="4">
@@ -3737,16 +3724,16 @@
         <v>-1.6</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U27" s="7">
         <v>0</v>
@@ -3769,7 +3756,7 @@
         <v>300581</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E28" s="4">
         <v>-6.24</v>
@@ -3778,7 +3765,7 @@
         <v>19.09</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H28" s="6">
         <v>-2.3</v>
@@ -3790,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="4">
@@ -3806,16 +3793,16 @@
         <v>-1.52</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U28" s="7">
         <v>0</v>
@@ -3838,7 +3825,7 @@
         <v>300591</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E29" s="4">
         <v>2.57</v>
@@ -3847,7 +3834,7 @@
         <v>11.58</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H29" s="6">
         <v>-1.04</v>
@@ -3859,7 +3846,7 @@
         <v>0.78</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="4">
@@ -3875,16 +3862,16 @@
         <v>0.33</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U29" s="7">
         <v>0</v>
@@ -3907,7 +3894,7 @@
         <v>300600</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E30" s="4">
         <v>-2.75</v>
@@ -3916,7 +3903,7 @@
         <v>16.27</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H30" s="6">
         <v>-2.58</v>
@@ -3928,7 +3915,7 @@
         <v>4.98</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="4">
@@ -3944,16 +3931,16 @@
         <v>-5</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U30" s="7">
         <v>0</v>
@@ -3976,7 +3963,7 @@
         <v>300631</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E31" s="4">
         <v>-0.97</v>
@@ -3985,7 +3972,7 @@
         <v>28.68</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H31" s="6">
         <v>3.91</v>
@@ -3997,7 +3984,7 @@
         <v>10.01</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="4">
@@ -4013,16 +4000,16 @@
         <v>-2.6</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="U31" s="7">
         <v>0</v>
@@ -4045,7 +4032,7 @@
         <v>300645</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E32" s="4">
         <v>-4.17</v>
@@ -4054,7 +4041,7 @@
         <v>19.75</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H32" s="6">
         <v>-1.11</v>
@@ -4066,7 +4053,7 @@
         <v>0.46</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="4">
@@ -4082,16 +4069,16 @@
         <v>-0.52</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U32" s="7">
         <v>0</v>
@@ -4114,7 +4101,7 @@
         <v>300649</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E33" s="4">
         <v>-2.62</v>
@@ -4123,7 +4110,7 @@
         <v>18.99</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H33" s="6">
         <v>-4.63</v>
@@ -4135,7 +4122,7 @@
         <v>-0.53</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="4">
@@ -4151,18 +4138,18 @@
         <v>-1.66</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U33" s="14">
+        <v>25</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U33" s="16">
         <v>1</v>
       </c>
       <c r="V33" s="4">
@@ -4183,7 +4170,7 @@
         <v>300697</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E34" s="4">
         <v>-1.94</v>
@@ -4192,7 +4179,7 @@
         <v>14.64</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H34" s="6">
         <v>-2.32</v>
@@ -4204,7 +4191,7 @@
         <v>0.14</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="4">
@@ -4220,16 +4207,16 @@
         <v>-1.06</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U34" s="7">
         <v>0</v>
@@ -4252,7 +4239,7 @@
         <v>300700</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E35" s="4">
         <v>-6.25</v>
@@ -4261,7 +4248,7 @@
         <v>11.86</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H35" s="6">
         <v>-2.87</v>
@@ -4273,7 +4260,7 @@
         <v>1.85</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="4">
@@ -4289,16 +4276,16 @@
         <v>-1.02</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U35" s="7">
         <v>0</v>
@@ -4321,7 +4308,7 @@
         <v>300703</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E36" s="4">
         <v>-0.08</v>
@@ -4330,7 +4317,7 @@
         <v>25</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H36" s="6">
         <v>-0.84</v>
@@ -4342,7 +4329,7 @@
         <v>-0.04</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="4">
@@ -4358,16 +4345,16 @@
         <v>-0.82</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U36" s="7">
         <v>0</v>
@@ -4390,7 +4377,7 @@
         <v>300748</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E37" s="4">
         <v>0.19</v>
@@ -4399,7 +4386,7 @@
         <v>26</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H37" s="6">
         <v>-0.77</v>
@@ -4411,7 +4398,7 @@
         <v>2.38</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="4">
@@ -4427,16 +4414,16 @@
         <v>-0.61</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U37" s="7">
         <v>0</v>
@@ -4459,7 +4446,7 @@
         <v>300773</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E38" s="4">
         <v>-3.22</v>
@@ -4468,7 +4455,7 @@
         <v>28.56</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H38" s="6">
         <v>-1.23</v>
@@ -4480,7 +4467,7 @@
         <v>1.12</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L38" s="11"/>
       <c r="M38" s="4">
@@ -4496,16 +4483,16 @@
         <v>-0.97</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U38" s="7">
         <v>0</v>
@@ -4528,7 +4515,7 @@
         <v>300778</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E39" s="4">
         <v>0.11</v>
@@ -4537,7 +4524,7 @@
         <v>18.68</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H39" s="6">
         <v>3.75</v>
@@ -4549,7 +4536,7 @@
         <v>8.94</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L39" s="11"/>
       <c r="M39" s="4">
@@ -4565,16 +4552,16 @@
         <v>0.27</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T39" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="U39" s="7">
         <v>0</v>
@@ -4597,7 +4584,7 @@
         <v>300803</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" s="4">
         <v>-7.57</v>
@@ -4606,7 +4593,7 @@
         <v>82.17</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="6">
         <v>1.67</v>
@@ -4618,7 +4605,7 @@
         <v>4.34</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="4">
@@ -4634,16 +4621,16 @@
         <v>-0.9</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U40" s="7">
         <v>0</v>
@@ -4666,7 +4653,7 @@
         <v>300821</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E41" s="4">
         <v>0.68</v>
@@ -4675,7 +4662,7 @@
         <v>10.35</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H41" s="6">
         <v>-5.41</v>
@@ -4687,7 +4674,7 @@
         <v>1.45</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="4">
@@ -4703,16 +4690,16 @@
         <v>-0.02</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U41" s="7">
         <v>0</v>
@@ -4735,7 +4722,7 @@
         <v>300847</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E42" s="4">
         <v>-4.34</v>
@@ -4744,7 +4731,7 @@
         <v>20.52</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H42" s="6">
         <v>-4.73</v>
@@ -4756,7 +4743,7 @@
         <v>1.36</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L42" s="11"/>
       <c r="M42" s="4">
@@ -4772,16 +4759,16 @@
         <v>-0.88</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T42" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U42" s="7">
         <v>0</v>
@@ -4804,7 +4791,7 @@
         <v>300860</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E43" s="4">
         <v>-4.29</v>
@@ -4813,7 +4800,7 @@
         <v>30.78</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H43" s="6">
         <v>-3.02</v>
@@ -4825,7 +4812,7 @@
         <v>1.56</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="4">
@@ -4841,16 +4828,16 @@
         <v>-0.51</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U43" s="7">
         <v>0</v>
@@ -4873,7 +4860,7 @@
         <v>300872</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E44" s="4">
         <v>1.08</v>
@@ -4882,7 +4869,7 @@
         <v>25.28</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H44" s="6">
         <v>1.03</v>
@@ -4894,7 +4881,7 @@
         <v>5.89</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="4">
@@ -4910,18 +4897,18 @@
         <v>0.84</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U44" s="14">
+        <v>25</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" s="16">
         <v>1</v>
       </c>
       <c r="V44" s="4">
@@ -4942,7 +4929,7 @@
         <v>300903</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E45" s="4">
         <v>0.19</v>
@@ -4951,7 +4938,7 @@
         <v>10.56</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H45" s="6">
         <v>-1.33</v>
@@ -4963,7 +4950,7 @@
         <v>5.78</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="4">
@@ -4979,16 +4966,16 @@
         <v>-0.02</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T45" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="U45" s="7">
         <v>0</v>
@@ -5011,7 +4998,7 @@
         <v>300947</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E46" s="4">
         <v>-3.08</v>
@@ -5020,7 +5007,7 @@
         <v>25.78</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H46" s="6">
         <v>-3.8</v>
@@ -5032,7 +5019,7 @@
         <v>1.16</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L46" s="11"/>
       <c r="M46" s="4">
@@ -5048,16 +5035,16 @@
         <v>0.05</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U46" s="7">
         <v>0</v>
@@ -5080,7 +5067,7 @@
         <v>300982</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E47" s="4">
         <v>2.4</v>
@@ -5089,7 +5076,7 @@
         <v>21.77</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H47" s="6">
         <v>-4.41</v>
@@ -5101,7 +5088,7 @@
         <v>-0.32</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="4">
@@ -5117,16 +5104,16 @@
         <v>0.43</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T47" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U47" s="7">
         <v>0</v>
@@ -5149,7 +5136,7 @@
         <v>300991</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E48" s="4">
         <v>0.84</v>
@@ -5158,7 +5145,7 @@
         <v>30.02</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H48" s="6">
         <v>-1.07</v>
@@ -5170,7 +5157,7 @@
         <v>0.7</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L48" s="11"/>
       <c r="M48" s="4">
@@ -5186,16 +5173,16 @@
         <v>-0.03</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T48" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U48" s="7">
         <v>0</v>
@@ -5218,7 +5205,7 @@
         <v>301024</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E49" s="4">
         <v>-3.61</v>
@@ -5227,7 +5214,7 @@
         <v>51.55</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H49" s="6">
         <v>-1.24</v>
@@ -5239,7 +5226,7 @@
         <v>1.82</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L49" s="11"/>
       <c r="M49" s="4">
@@ -5255,16 +5242,16 @@
         <v>-0.3</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U49" s="7">
         <v>0</v>
@@ -5287,7 +5274,7 @@
         <v>301120</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E50" s="4">
         <v>6.29</v>
@@ -5296,7 +5283,7 @@
         <v>13.85</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H50" s="6">
         <v>-6.21</v>
@@ -5308,7 +5295,7 @@
         <v>-3.83</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="4">
@@ -5324,16 +5311,16 @@
         <v>0.29</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U50" s="7">
         <v>0</v>
@@ -5356,7 +5343,7 @@
         <v>301141</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E51" s="4">
         <v>-5.1</v>
@@ -5365,7 +5352,7 @@
         <v>70.85</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H51" s="6">
         <v>1.61</v>
@@ -5377,7 +5364,7 @@
         <v>6.92</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L51" s="11"/>
       <c r="M51" s="4">
@@ -5393,18 +5380,18 @@
         <v>-1.56</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="U51" s="14">
+        <v>25</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51" s="16">
         <v>1</v>
       </c>
       <c r="V51" s="4">
@@ -5425,7 +5412,7 @@
         <v>301150</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E52" s="4">
         <v>-0.57</v>
@@ -5434,7 +5421,7 @@
         <v>22.85</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H52" s="6">
         <v>3.94</v>
@@ -5446,7 +5433,7 @@
         <v>4.2</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L52" s="11"/>
       <c r="M52" s="4">
@@ -5462,16 +5449,16 @@
         <v>-0.75</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U52" s="7">
         <v>0</v>
@@ -5494,7 +5481,7 @@
         <v>301176</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E53" s="4">
         <v>8.05</v>
@@ -5503,7 +5490,7 @@
         <v>37.3</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H53" s="6">
         <v>-6.09</v>
@@ -5515,7 +5502,7 @@
         <v>4.02</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="4">
@@ -5530,17 +5517,17 @@
       <c r="P53" s="12">
         <v>1.1</v>
       </c>
-      <c r="Q53" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R53" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T53" s="13" t="s">
-        <v>23</v>
+      <c r="Q53" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U53" s="7">
         <v>0</v>
@@ -5563,7 +5550,7 @@
         <v>301178</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E54" s="4">
         <v>-2.4</v>
@@ -5572,7 +5559,7 @@
         <v>56.56</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H54" s="6">
         <v>-1.18</v>
@@ -5584,7 +5571,7 @@
         <v>1.86</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L54" s="11"/>
       <c r="M54" s="4">
@@ -5600,18 +5587,18 @@
         <v>-0.86</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U54" s="14">
+        <v>25</v>
+      </c>
+      <c r="R54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U54" s="16">
         <v>1</v>
       </c>
       <c r="V54" s="4">
@@ -5632,7 +5619,7 @@
         <v>301208</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E55" s="4">
         <v>-4.26</v>
@@ -5641,7 +5628,7 @@
         <v>49.19</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H55" s="6">
         <v>-3.33</v>
@@ -5653,7 +5640,7 @@
         <v>-0.02</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L55" s="11"/>
       <c r="M55" s="4">
@@ -5669,16 +5656,16 @@
         <v>-0.2</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T55" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U55" s="7">
         <v>0</v>
@@ -5701,7 +5688,7 @@
         <v>301217</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E56" s="4">
         <v>4.52</v>
@@ -5710,7 +5697,7 @@
         <v>20.1</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H56" s="6">
         <v>-4.48</v>
@@ -5722,7 +5709,7 @@
         <v>1.14</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="4">
@@ -5737,17 +5724,17 @@
       <c r="P56" s="12">
         <v>1.12</v>
       </c>
-      <c r="Q56" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R56" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>23</v>
+      <c r="Q56" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U56" s="7">
         <v>0</v>
@@ -5770,7 +5757,7 @@
         <v>301311</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E57" s="4">
         <v>-2.15</v>
@@ -5779,7 +5766,7 @@
         <v>22.25</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H57" s="6">
         <v>-3.46</v>
@@ -5791,7 +5778,7 @@
         <v>-0.27</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="4">
@@ -5807,18 +5794,18 @@
         <v>-3.43</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U57" s="14">
+        <v>25</v>
+      </c>
+      <c r="R57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U57" s="16">
         <v>1</v>
       </c>
       <c r="V57" s="4">
@@ -5839,7 +5826,7 @@
         <v>301345</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E58" s="4">
         <v>5.25</v>
@@ -5848,7 +5835,7 @@
         <v>146.99</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H58" s="6">
         <v>1.42</v>
@@ -5860,7 +5847,7 @@
         <v>1.71</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="4">
@@ -5876,18 +5863,18 @@
         <v>-0.78</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U58" s="14">
+        <v>25</v>
+      </c>
+      <c r="R58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U58" s="16">
         <v>1</v>
       </c>
       <c r="V58" s="4">
@@ -5908,7 +5895,7 @@
         <v>301388</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E59" s="4">
         <v>19.99</v>
@@ -5917,7 +5904,7 @@
         <v>42.13</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H59" s="6">
         <v>-8.5</v>
@@ -5929,7 +5916,7 @@
         <v>-3.06</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="4">
@@ -5944,25 +5931,25 @@
       <c r="P59" s="12">
         <v>9.41</v>
       </c>
-      <c r="Q59" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R59" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="S59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="U59" s="14">
+      <c r="Q59" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U59" s="16">
         <v>1</v>
       </c>
       <c r="V59" s="4">
         <v>9.586592674</v>
       </c>
-      <c r="W59" s="16">
+      <c r="W59" s="18">
         <v>1</v>
       </c>
     </row>
@@ -5977,7 +5964,7 @@
         <v>301389</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E60" s="4">
         <v>-1.05</v>
@@ -5986,7 +5973,7 @@
         <v>33</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H60" s="6">
         <v>-0.58</v>
@@ -5998,7 +5985,7 @@
         <v>2.09</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="4">
@@ -6014,16 +6001,16 @@
         <v>0.18</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T60" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R60" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S60" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T60" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U60" s="7">
         <v>0</v>
@@ -6046,7 +6033,7 @@
         <v>301421</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E61" s="4">
         <v>1.66</v>
@@ -6055,7 +6042,7 @@
         <v>73.31</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H61" s="6">
         <v>-3.97</v>
@@ -6067,7 +6054,7 @@
         <v>-0.52</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="4">
@@ -6083,16 +6070,16 @@
         <v>0.33</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T61" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U61" s="7">
         <v>0</v>
@@ -6115,7 +6102,7 @@
         <v>301511</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E62" s="4">
         <v>-0.41</v>
@@ -6124,7 +6111,7 @@
         <v>24.5</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H62" s="6">
         <v>4.41</v>
@@ -6136,7 +6123,7 @@
         <v>5.67</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L62" s="11"/>
       <c r="M62" s="4">
@@ -6152,16 +6139,16 @@
         <v>-0.17</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T62" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="U62" s="7">
         <v>0</v>
@@ -6184,7 +6171,7 @@
         <v>301526</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E63" s="4">
         <v>-2.4</v>
@@ -6193,7 +6180,7 @@
         <v>4.88</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H63" s="6">
         <v>-2.05</v>
@@ -6205,7 +6192,7 @@
         <v>2.46</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L63" s="11"/>
       <c r="M63" s="4">
@@ -6221,16 +6208,16 @@
         <v>-0.81</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T63" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U63" s="7">
         <v>0</v>
@@ -6253,7 +6240,7 @@
         <v>688062</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E64" s="4">
         <v>-2.56</v>
@@ -6262,7 +6249,7 @@
         <v>31.18</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H64" s="6">
         <v>-1.06</v>
@@ -6274,7 +6261,7 @@
         <v>1.31</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="4">
@@ -6290,16 +6277,16 @@
         <v>-0.76</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U64" s="7">
         <v>0</v>
@@ -6322,7 +6309,7 @@
         <v>688202</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E65" s="4">
         <v>-3.58</v>
@@ -6331,7 +6318,7 @@
         <v>52</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H65" s="6">
         <v>-4.56</v>
@@ -6343,7 +6330,7 @@
         <v>-1.35</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L65" s="11"/>
       <c r="M65" s="4">
@@ -6359,16 +6346,16 @@
         <v>-0.71</v>
       </c>
       <c r="Q65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U65" s="7">
         <v>0</v>
@@ -6391,7 +6378,7 @@
         <v>688221</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E66" s="4">
         <v>2.97</v>
@@ -6400,7 +6387,7 @@
         <v>18.7</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H66" s="6">
         <v>-5.72</v>
@@ -6412,7 +6399,7 @@
         <v>1.39</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L66" s="11"/>
       <c r="M66" s="4">
@@ -6428,16 +6415,16 @@
         <v>0.2</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T66" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R66" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U66" s="7">
         <v>0</v>
@@ -6460,7 +6447,7 @@
         <v>688313</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E67" s="4">
         <v>-1.9</v>
@@ -6469,7 +6456,7 @@
         <v>42.87</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H67" s="6">
         <v>13.55</v>
@@ -6481,7 +6468,7 @@
         <v>15.7</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L67" s="11"/>
       <c r="M67" s="4">
@@ -6497,16 +6484,16 @@
         <v>-0.42</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T67" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="R67" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S67" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T67" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="U67" s="7">
         <v>0</v>
@@ -6529,7 +6516,7 @@
         <v>688321</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E68" s="4">
         <v>0.53</v>
@@ -6538,7 +6525,7 @@
         <v>33.98</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H68" s="6">
         <v>5.27</v>
@@ -6550,7 +6537,7 @@
         <v>6.5</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L68" s="11"/>
       <c r="M68" s="4">
@@ -6566,16 +6553,16 @@
         <v>-0.11</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T68" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="R68" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T68" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="U68" s="7">
         <v>0</v>
@@ -6598,7 +6585,7 @@
         <v>688553</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E69" s="4">
         <v>-1.69</v>
@@ -6607,7 +6594,7 @@
         <v>19.73</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H69" s="6">
         <v>-3.04</v>
@@ -6619,7 +6606,7 @@
         <v>0.2</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L69" s="11"/>
       <c r="M69" s="4">
@@ -6635,16 +6622,16 @@
         <v>-0.88</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R69" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U69" s="7">
         <v>0</v>
@@ -6667,7 +6654,7 @@
         <v>688799</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E70" s="4">
         <v>-7.23</v>
@@ -6676,7 +6663,7 @@
         <v>53.8</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H70" s="6">
         <v>-0.37</v>
@@ -6688,7 +6675,7 @@
         <v>1.12</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="4">
@@ -6704,16 +6691,16 @@
         <v>0.03</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="R70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T70" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="U70" s="7">
         <v>0</v>
@@ -6726,1094 +6713,1094 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="17">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="3">
         <v>45847</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C71" s="6">
         <v>301389</v>
       </c>
-      <c r="D71" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E71" s="19">
+      <c r="D71" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="6">
         <v>12.92</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="6">
         <v>38.01</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" s="6">
+        <v>-10.18</v>
+      </c>
+      <c r="I71" s="6">
+        <v>38.58</v>
+      </c>
+      <c r="J71" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L71" s="11"/>
+      <c r="M71" s="6">
+        <v>2</v>
+      </c>
+      <c r="N71" s="6">
+        <v>34527781</v>
+      </c>
+      <c r="O71" s="6">
+        <v>51392921</v>
+      </c>
+      <c r="P71" s="12">
+        <v>1.14</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R71" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U71" s="16">
+        <v>1</v>
+      </c>
+      <c r="V71" s="21">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C72" s="6">
+        <v>301408</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="6">
+        <v>-1.8</v>
+      </c>
+      <c r="F72" s="6">
+        <v>14.16</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1.13</v>
+      </c>
+      <c r="I72" s="6">
+        <v>14.45</v>
+      </c>
+      <c r="J72" s="9">
+        <v>2.05</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" s="11"/>
+      <c r="M72" s="6">
+        <v>7</v>
+      </c>
+      <c r="N72" s="6">
+        <v>-11021427</v>
+      </c>
+      <c r="O72" s="6">
+        <v>-35566435</v>
+      </c>
+      <c r="P72" s="6">
+        <v>-0.53</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U72" s="7">
+        <v>0</v>
+      </c>
+      <c r="V72" s="21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C73" s="6">
+        <v>301421</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="6">
+        <v>-0.82</v>
+      </c>
+      <c r="F73" s="6">
+        <v>71.3</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73" s="6">
+        <v>-1.61</v>
+      </c>
+      <c r="I73" s="6">
+        <v>71.5</v>
+      </c>
+      <c r="J73" s="9">
+        <v>0.28</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L73" s="11"/>
+      <c r="M73" s="6">
+        <v>13</v>
+      </c>
+      <c r="N73" s="6">
+        <v>6109307</v>
+      </c>
+      <c r="O73" s="6">
+        <v>-41299175</v>
+      </c>
+      <c r="P73" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U73" s="7">
+        <v>0</v>
+      </c>
+      <c r="V73" s="21">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C74" s="6">
+        <v>301511</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" s="6">
+        <v>-4.59</v>
+      </c>
+      <c r="F74" s="6">
+        <v>25.75</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" s="6">
+        <v>-1.9</v>
+      </c>
+      <c r="I74" s="6">
+        <v>27</v>
+      </c>
+      <c r="J74" s="9">
+        <v>4.85</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="6">
+        <v>12</v>
+      </c>
+      <c r="N74" s="6">
+        <v>2673132</v>
+      </c>
+      <c r="O74" s="6">
+        <v>-166530690</v>
+      </c>
+      <c r="P74" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Q74" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U74" s="7">
+        <v>0</v>
+      </c>
+      <c r="V74" s="21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C75" s="6">
+        <v>301526</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="6">
+        <v>5.95</v>
+      </c>
+      <c r="F75" s="6">
+        <v>5.34</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="6">
+        <v>3</v>
+      </c>
+      <c r="I75" s="6">
+        <v>5.97</v>
+      </c>
+      <c r="J75" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="6">
+        <v>2</v>
+      </c>
+      <c r="N75" s="6">
+        <v>-375990470</v>
+      </c>
+      <c r="O75" s="6">
+        <v>90197620</v>
+      </c>
+      <c r="P75" s="6">
+        <v>-5.01</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T75" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U75" s="7">
+        <v>0</v>
+      </c>
+      <c r="V75" s="21">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C76" s="6">
+        <v>688062</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="6">
+        <v>-0.62</v>
+      </c>
+      <c r="F76" s="6">
+        <v>30.4</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H76" s="6">
+        <v>4.38</v>
+      </c>
+      <c r="I76" s="6">
+        <v>32.02</v>
+      </c>
+      <c r="J76" s="9">
+        <v>5.33</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L76" s="11"/>
+      <c r="M76" s="6">
+        <v>5</v>
+      </c>
+      <c r="N76" s="6">
+        <v>4284870</v>
+      </c>
+      <c r="O76" s="6">
+        <v>-7107171</v>
+      </c>
+      <c r="P76" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R76" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T76" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U76" s="7">
+        <v>0</v>
+      </c>
+      <c r="V76" s="21">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C77" s="6">
+        <v>688117</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="6">
+        <v>-3.85</v>
+      </c>
+      <c r="F77" s="6">
+        <v>34.51</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H77" s="6">
+        <v>-0.2</v>
+      </c>
+      <c r="I77" s="6">
+        <v>35.58</v>
+      </c>
+      <c r="J77" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L77" s="11"/>
+      <c r="M77" s="6">
+        <v>22</v>
+      </c>
+      <c r="N77" s="6">
+        <v>-13952649</v>
+      </c>
+      <c r="O77" s="6">
+        <v>-67257006</v>
+      </c>
+      <c r="P77" s="6">
+        <v>-0.27</v>
+      </c>
+      <c r="Q77" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R77" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U77" s="16">
+        <v>1</v>
+      </c>
+      <c r="V77" s="21">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C78" s="6">
+        <v>688202</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="6">
+        <v>13.36</v>
+      </c>
+      <c r="F78" s="6">
+        <v>51.35</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H78" s="6">
+        <v>-2.04</v>
+      </c>
+      <c r="I78" s="6">
+        <v>52.35</v>
+      </c>
+      <c r="J78" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L78" s="11"/>
+      <c r="M78" s="6">
+        <v>2</v>
+      </c>
+      <c r="N78" s="6">
+        <v>-53810123</v>
+      </c>
+      <c r="O78" s="6">
+        <v>171237602</v>
+      </c>
+      <c r="P78" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="Q78" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R78" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T78" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U78" s="16">
+        <v>1</v>
+      </c>
+      <c r="V78" s="21">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C79" s="6">
+        <v>688221</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="6">
+        <v>-2.3</v>
+      </c>
+      <c r="F79" s="6">
+        <v>14.46</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H79" s="6">
+        <v>11.48</v>
+      </c>
+      <c r="I79" s="6">
+        <v>16.35</v>
+      </c>
+      <c r="J79" s="9">
+        <v>13.07</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L79" s="11"/>
+      <c r="M79" s="6">
+        <v>3</v>
+      </c>
+      <c r="N79" s="6">
+        <v>7780666</v>
+      </c>
+      <c r="O79" s="6">
+        <v>-21077976</v>
+      </c>
+      <c r="P79" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R79" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T79" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U79" s="7">
+        <v>0</v>
+      </c>
+      <c r="V79" s="21">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C80" s="6">
+        <v>688291</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="6">
+        <v>-5.6</v>
+      </c>
+      <c r="F80" s="6">
+        <v>38.47</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="6">
+        <v>-9.41</v>
+      </c>
+      <c r="I80" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="J80" s="9">
+        <v>-1.48</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L80" s="11"/>
+      <c r="M80" s="6">
+        <v>2</v>
+      </c>
+      <c r="N80" s="6">
+        <v>-7707118</v>
+      </c>
+      <c r="O80" s="6">
+        <v>-46695839</v>
+      </c>
+      <c r="P80" s="6">
+        <v>-0.62</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R80" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T80" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U80" s="16">
+        <v>1</v>
+      </c>
+      <c r="V80" s="21">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C81" s="6">
+        <v>688321</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="6">
+        <v>-0.32</v>
+      </c>
+      <c r="F81" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="6">
+        <v>4.38</v>
+      </c>
+      <c r="I81" s="6">
+        <v>34.27</v>
+      </c>
+      <c r="J81" s="9">
+        <v>9.49</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L81" s="11"/>
+      <c r="M81" s="6">
+        <v>7</v>
+      </c>
+      <c r="N81" s="6">
+        <v>30125792</v>
+      </c>
+      <c r="O81" s="6">
+        <v>6933609</v>
+      </c>
+      <c r="P81" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R81" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S81" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T81" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U81" s="7">
+        <v>0</v>
+      </c>
+      <c r="V81" s="21">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C82" s="6">
+        <v>688499</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="F82" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="I82" s="6">
+        <v>39.78</v>
+      </c>
+      <c r="J82" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L82" s="11"/>
+      <c r="M82" s="6">
+        <v>17</v>
+      </c>
+      <c r="N82" s="6">
+        <v>19289881</v>
+      </c>
+      <c r="O82" s="6">
+        <v>-44664137</v>
+      </c>
+      <c r="P82" s="6">
+        <v>0.28</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R82" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S82" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T82" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="U82" s="16">
+        <v>1</v>
+      </c>
+      <c r="V82" s="21">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C83" s="6">
+        <v>688553</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" s="6">
+        <v>2.93</v>
+      </c>
+      <c r="F83" s="6">
+        <v>20.02</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="I83" s="6">
+        <v>21.45</v>
+      </c>
+      <c r="J83" s="9">
+        <v>7.14</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="L83" s="11"/>
+      <c r="M83" s="6">
+        <v>4</v>
+      </c>
+      <c r="N83" s="6">
+        <v>59848949</v>
+      </c>
+      <c r="O83" s="6">
+        <v>-2816247</v>
+      </c>
+      <c r="P83" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="Q83" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R83" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T83" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U83" s="7">
+        <v>0</v>
+      </c>
+      <c r="V83" s="21">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C84" s="6">
+        <v>688717</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" s="6">
+        <v>-1.7</v>
+      </c>
+      <c r="F84" s="6">
+        <v>64.88</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H84" s="6">
+        <v>2.67</v>
+      </c>
+      <c r="I84" s="6">
+        <v>69.75</v>
+      </c>
+      <c r="J84" s="9">
+        <v>7.51</v>
+      </c>
+      <c r="K84" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H71" s="19">
-        <v>-10.18</v>
-      </c>
-      <c r="I71" s="19">
-        <v>38.58</v>
-      </c>
-      <c r="J71" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="K71" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="L71" s="21"/>
-      <c r="M71" s="19">
+      <c r="L84" s="11"/>
+      <c r="M84" s="6">
         <v>2</v>
       </c>
-      <c r="N71" s="19">
-        <v>34527781</v>
-      </c>
-      <c r="O71" s="19">
-        <v>51392921</v>
-      </c>
-      <c r="P71" s="24">
-        <v>1.14</v>
-      </c>
-      <c r="Q71" s="23" t="s">
+      <c r="N84" s="6">
+        <v>-6717984</v>
+      </c>
+      <c r="O84" s="6">
+        <v>-49763618</v>
+      </c>
+      <c r="P84" s="6">
+        <v>-0.11</v>
+      </c>
+      <c r="Q84" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R84" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T84" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U84" s="16">
+        <v>1</v>
+      </c>
+      <c r="V84" s="21">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <v>45847</v>
+      </c>
+      <c r="C85" s="6">
+        <v>688799</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="6">
+        <v>3.04</v>
+      </c>
+      <c r="F85" s="6">
+        <v>50.49</v>
+      </c>
+      <c r="G85" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R71" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S71" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T71" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U71" s="28">
+      <c r="H85" s="6">
+        <v>14.85</v>
+      </c>
+      <c r="I85" s="6">
+        <v>60.55</v>
+      </c>
+      <c r="J85" s="9">
+        <v>19.92</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L85" s="11"/>
+      <c r="M85" s="6">
         <v>1</v>
       </c>
-      <c r="V71" s="29">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
-      <c r="A72" s="17">
-        <v>71</v>
-      </c>
-      <c r="B72" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C72" s="19">
-        <v>301408</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E72" s="19">
-        <v>-1.8</v>
-      </c>
-      <c r="F72" s="19">
-        <v>14.16</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="H72" s="19">
-        <v>1.13</v>
-      </c>
-      <c r="I72" s="19">
-        <v>14.45</v>
-      </c>
-      <c r="J72" s="22">
-        <v>2.05</v>
-      </c>
-      <c r="K72" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L72" s="21"/>
-      <c r="M72" s="19">
-        <v>7</v>
-      </c>
-      <c r="N72" s="19">
-        <v>-11021427</v>
-      </c>
-      <c r="O72" s="19">
-        <v>-35566435</v>
-      </c>
-      <c r="P72" s="19">
-        <v>-0.53</v>
-      </c>
-      <c r="Q72" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T72" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U72" s="30">
-        <v>0</v>
-      </c>
-      <c r="V72" s="29">
+      <c r="N85" s="6">
+        <v>24271837</v>
+      </c>
+      <c r="O85" s="6">
+        <v>24053543</v>
+      </c>
+      <c r="P85" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R85" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S85" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T85" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U85" s="7">
+        <v>0</v>
+      </c>
+      <c r="V85" s="21">
         <v>0.7</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
-      <c r="A73" s="17">
-        <v>72</v>
-      </c>
-      <c r="B73" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C73" s="19">
-        <v>301421</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E73" s="19">
-        <v>-0.82</v>
-      </c>
-      <c r="F73" s="19">
-        <v>71.3</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="H73" s="19">
-        <v>-1.61</v>
-      </c>
-      <c r="I73" s="19">
-        <v>71.5</v>
-      </c>
-      <c r="J73" s="22">
-        <v>0.28</v>
-      </c>
-      <c r="K73" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="L73" s="21"/>
-      <c r="M73" s="19">
-        <v>13</v>
-      </c>
-      <c r="N73" s="19">
-        <v>6109307</v>
-      </c>
-      <c r="O73" s="19">
-        <v>-41299175</v>
-      </c>
-      <c r="P73" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="Q73" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R73" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U73" s="30">
-        <v>0</v>
-      </c>
-      <c r="V73" s="29">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="A74" s="17">
-        <v>73</v>
-      </c>
-      <c r="B74" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C74" s="19">
-        <v>301511</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="19">
-        <v>-4.59</v>
-      </c>
-      <c r="F74" s="19">
-        <v>25.75</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H74" s="19">
-        <v>-1.9</v>
-      </c>
-      <c r="I74" s="19">
-        <v>27</v>
-      </c>
-      <c r="J74" s="22">
-        <v>4.85</v>
-      </c>
-      <c r="K74" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="L74" s="21"/>
-      <c r="M74" s="19">
-        <v>12</v>
-      </c>
-      <c r="N74" s="19">
-        <v>2673132</v>
-      </c>
-      <c r="O74" s="19">
-        <v>-166530690</v>
-      </c>
-      <c r="P74" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="Q74" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T74" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U74" s="30">
-        <v>0</v>
-      </c>
-      <c r="V74" s="29">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
-      <c r="A75" s="17">
-        <v>74</v>
-      </c>
-      <c r="B75" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C75" s="19">
-        <v>301526</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E75" s="19">
-        <v>5.95</v>
-      </c>
-      <c r="F75" s="19">
-        <v>5.34</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H75" s="19">
-        <v>3</v>
-      </c>
-      <c r="I75" s="19">
-        <v>5.97</v>
-      </c>
-      <c r="J75" s="22">
-        <v>11.8</v>
-      </c>
-      <c r="K75" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L75" s="21"/>
-      <c r="M75" s="19">
-        <v>2</v>
-      </c>
-      <c r="N75" s="19">
-        <v>-375990470</v>
-      </c>
-      <c r="O75" s="19">
-        <v>90197620</v>
-      </c>
-      <c r="P75" s="19">
-        <v>-5.01</v>
-      </c>
-      <c r="Q75" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T75" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U75" s="30">
-        <v>0</v>
-      </c>
-      <c r="V75" s="29">
-        <v>7.79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
-      <c r="A76" s="17">
-        <v>75</v>
-      </c>
-      <c r="B76" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C76" s="19">
-        <v>688062</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" s="19">
-        <v>-0.62</v>
-      </c>
-      <c r="F76" s="19">
-        <v>30.4</v>
-      </c>
-      <c r="G76" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H76" s="19">
-        <v>4.38</v>
-      </c>
-      <c r="I76" s="19">
-        <v>32.02</v>
-      </c>
-      <c r="J76" s="22">
-        <v>5.33</v>
-      </c>
-      <c r="K76" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L76" s="21"/>
-      <c r="M76" s="19">
-        <v>5</v>
-      </c>
-      <c r="N76" s="19">
-        <v>4284870</v>
-      </c>
-      <c r="O76" s="19">
-        <v>-7107171</v>
-      </c>
-      <c r="P76" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="Q76" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S76" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U76" s="30">
-        <v>0</v>
-      </c>
-      <c r="V76" s="29">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="A77" s="17">
-        <v>76</v>
-      </c>
-      <c r="B77" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C77" s="19">
-        <v>688117</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E77" s="19">
-        <v>-3.85</v>
-      </c>
-      <c r="F77" s="19">
-        <v>34.51</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H77" s="19">
-        <v>-0.2</v>
-      </c>
-      <c r="I77" s="19">
-        <v>35.58</v>
-      </c>
-      <c r="J77" s="22">
-        <v>3.1</v>
-      </c>
-      <c r="K77" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L77" s="21"/>
-      <c r="M77" s="19">
-        <v>22</v>
-      </c>
-      <c r="N77" s="19">
-        <v>-13952649</v>
-      </c>
-      <c r="O77" s="19">
-        <v>-67257006</v>
-      </c>
-      <c r="P77" s="19">
-        <v>-0.27</v>
-      </c>
-      <c r="Q77" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T77" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U77" s="28">
-        <v>1</v>
-      </c>
-      <c r="V77" s="29">
-        <v>5.84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="A78" s="17">
-        <v>77</v>
-      </c>
-      <c r="B78" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C78" s="19">
-        <v>688202</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" s="19">
-        <v>13.36</v>
-      </c>
-      <c r="F78" s="19">
-        <v>51.35</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H78" s="19">
-        <v>-2.04</v>
-      </c>
-      <c r="I78" s="19">
-        <v>52.35</v>
-      </c>
-      <c r="J78" s="22">
-        <v>1.95</v>
-      </c>
-      <c r="K78" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="L78" s="21"/>
-      <c r="M78" s="19">
-        <v>2</v>
-      </c>
-      <c r="N78" s="19">
-        <v>-53810123</v>
-      </c>
-      <c r="O78" s="19">
-        <v>171237602</v>
-      </c>
-      <c r="P78" s="19">
-        <v>-0.8</v>
-      </c>
-      <c r="Q78" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T78" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U78" s="28">
-        <v>1</v>
-      </c>
-      <c r="V78" s="29">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
-      <c r="A79" s="17">
-        <v>78</v>
-      </c>
-      <c r="B79" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C79" s="19">
-        <v>688221</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E79" s="19">
-        <v>-2.3</v>
-      </c>
-      <c r="F79" s="19">
-        <v>14.46</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H79" s="19">
-        <v>11.48</v>
-      </c>
-      <c r="I79" s="19">
-        <v>16.35</v>
-      </c>
-      <c r="J79" s="22">
-        <v>13.07</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="L79" s="21"/>
-      <c r="M79" s="19">
-        <v>3</v>
-      </c>
-      <c r="N79" s="19">
-        <v>7780666</v>
-      </c>
-      <c r="O79" s="19">
-        <v>-21077976</v>
-      </c>
-      <c r="P79" s="19">
-        <v>0.14</v>
-      </c>
-      <c r="Q79" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T79" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U79" s="30">
-        <v>0</v>
-      </c>
-      <c r="V79" s="29">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
-      <c r="A80" s="17">
-        <v>79</v>
-      </c>
-      <c r="B80" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C80" s="19">
-        <v>688291</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="19">
-        <v>-5.6</v>
-      </c>
-      <c r="F80" s="19">
-        <v>38.47</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H80" s="19">
-        <v>-9.41</v>
-      </c>
-      <c r="I80" s="19">
-        <v>37.9</v>
-      </c>
-      <c r="J80" s="22">
-        <v>-1.48</v>
-      </c>
-      <c r="K80" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="L80" s="21"/>
-      <c r="M80" s="19">
-        <v>2</v>
-      </c>
-      <c r="N80" s="19">
-        <v>-7707118</v>
-      </c>
-      <c r="O80" s="19">
-        <v>-46695839</v>
-      </c>
-      <c r="P80" s="19">
-        <v>-0.62</v>
-      </c>
-      <c r="Q80" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R80" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S80" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T80" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U80" s="28">
-        <v>1</v>
-      </c>
-      <c r="V80" s="29">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="A81" s="17">
-        <v>80</v>
-      </c>
-      <c r="B81" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C81" s="19">
-        <v>688321</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="E81" s="19">
-        <v>-0.32</v>
-      </c>
-      <c r="F81" s="19">
-        <v>31.3</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="19">
-        <v>4.38</v>
-      </c>
-      <c r="I81" s="19">
-        <v>34.27</v>
-      </c>
-      <c r="J81" s="22">
-        <v>9.49</v>
-      </c>
-      <c r="K81" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L81" s="21"/>
-      <c r="M81" s="19">
-        <v>7</v>
-      </c>
-      <c r="N81" s="19">
-        <v>30125792</v>
-      </c>
-      <c r="O81" s="19">
-        <v>6933609</v>
-      </c>
-      <c r="P81" s="19">
-        <v>0.23</v>
-      </c>
-      <c r="Q81" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R81" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S81" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T81" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U81" s="30">
-        <v>0</v>
-      </c>
-      <c r="V81" s="29">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="17">
-        <v>81</v>
-      </c>
-      <c r="B82" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C82" s="19">
-        <v>688499</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" s="19">
-        <v>0.31</v>
-      </c>
-      <c r="F82" s="19">
-        <v>39.4</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H82" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="I82" s="19">
-        <v>39.78</v>
-      </c>
-      <c r="J82" s="22">
-        <v>0.96</v>
-      </c>
-      <c r="K82" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L82" s="21"/>
-      <c r="M82" s="19">
-        <v>17</v>
-      </c>
-      <c r="N82" s="19">
-        <v>19289881</v>
-      </c>
-      <c r="O82" s="19">
-        <v>-44664137</v>
-      </c>
-      <c r="P82" s="19">
-        <v>0.28</v>
-      </c>
-      <c r="Q82" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R82" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S82" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T82" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="U82" s="28">
-        <v>1</v>
-      </c>
-      <c r="V82" s="29">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="A83" s="17">
-        <v>82</v>
-      </c>
-      <c r="B83" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C83" s="19">
-        <v>688553</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="19">
-        <v>2.93</v>
-      </c>
-      <c r="F83" s="19">
-        <v>20.02</v>
-      </c>
-      <c r="G83" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" s="19">
-        <v>1.55</v>
-      </c>
-      <c r="I83" s="19">
-        <v>21.45</v>
-      </c>
-      <c r="J83" s="22">
-        <v>7.14</v>
-      </c>
-      <c r="K83" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="L83" s="21"/>
-      <c r="M83" s="19">
-        <v>4</v>
-      </c>
-      <c r="N83" s="19">
-        <v>59848949</v>
-      </c>
-      <c r="O83" s="19">
-        <v>-2816247</v>
-      </c>
-      <c r="P83" s="24">
-        <v>0.86</v>
-      </c>
-      <c r="Q83" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R83" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S83" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T83" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U83" s="30">
-        <v>0</v>
-      </c>
-      <c r="V83" s="29">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="A84" s="17">
-        <v>83</v>
-      </c>
-      <c r="B84" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C84" s="19">
-        <v>688717</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E84" s="19">
-        <v>-1.7</v>
-      </c>
-      <c r="F84" s="19">
-        <v>64.88</v>
-      </c>
-      <c r="G84" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H84" s="19">
-        <v>2.67</v>
-      </c>
-      <c r="I84" s="19">
-        <v>69.75</v>
-      </c>
-      <c r="J84" s="22">
-        <v>7.51</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="L84" s="21"/>
-      <c r="M84" s="19">
-        <v>2</v>
-      </c>
-      <c r="N84" s="19">
-        <v>-6717984</v>
-      </c>
-      <c r="O84" s="19">
-        <v>-49763618</v>
-      </c>
-      <c r="P84" s="19">
-        <v>-0.11</v>
-      </c>
-      <c r="Q84" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R84" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="S84" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="T84" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U84" s="28">
-        <v>1</v>
-      </c>
-      <c r="V84" s="29">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="A85" s="17">
-        <v>84</v>
-      </c>
-      <c r="B85" s="18">
-        <v>45847</v>
-      </c>
-      <c r="C85" s="19">
-        <v>688799</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="E85" s="19">
-        <v>3.04</v>
-      </c>
-      <c r="F85" s="19">
-        <v>50.49</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" s="19">
-        <v>14.85</v>
-      </c>
-      <c r="I85" s="19">
-        <v>60.55</v>
-      </c>
-      <c r="J85" s="22">
-        <v>19.92</v>
-      </c>
-      <c r="K85" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L85" s="21"/>
-      <c r="M85" s="19">
-        <v>1</v>
-      </c>
-      <c r="N85" s="19">
-        <v>24271837</v>
-      </c>
-      <c r="O85" s="19">
-        <v>24053543</v>
-      </c>
-      <c r="P85" s="24">
-        <v>0.37</v>
-      </c>
-      <c r="Q85" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R85" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S85" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T85" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U85" s="30">
-        <v>0</v>
-      </c>
-      <c r="V85" s="29">
-        <v>0.7</v>
-      </c>
-    </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="23"/>
-      <c r="R87" s="27"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="15"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="23"/>
-      <c r="R88" s="27"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="15"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="23"/>
-      <c r="R89" s="27"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="15"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="23"/>
-      <c r="R90" s="26"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
